--- a/src/attributions/attributions_ig_traj_127.xlsx
+++ b/src/attributions/attributions_ig_traj_127.xlsx
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -1055,13 +1055,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
         <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -1163,13 +1163,13 @@
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC2" t="n">
         <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL2" t="n">
         <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
@@ -1217,13 +1217,13 @@
         <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW2" t="n">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF2" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM2" t="n">
         <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO2" t="n">
         <v>0</v>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV2" t="n">
         <v>0</v>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG2" t="n">
         <v>0</v>
@@ -1352,13 +1352,13 @@
         <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN2" t="n">
         <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP2" t="n">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW2" t="n">
         <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY2" t="n">
         <v>0</v>
@@ -1406,13 +1406,13 @@
         <v>0</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF2" t="n">
         <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH2" t="n">
         <v>0</v>
@@ -1433,13 +1433,13 @@
         <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO2" t="n">
         <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ2" t="n">
         <v>0</v>
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX2" t="n">
         <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG2" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR2" t="n">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY2" t="n">
         <v>0</v>
@@ -1576,34 +1576,34 @@
         <v>-0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0.5027264699901006</v>
       </c>
       <c r="C3" t="n">
         <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1057178532372692</v>
+        <v>-0.01828436989046878</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.6676571977912784</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06573870251476326</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2423658162056773</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0.1040086735901935</v>
       </c>
       <c r="L3" t="n">
         <v>-0</v>
@@ -1612,133 +1612,133 @@
         <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.06925648284088425</v>
+        <v>-0.09161148816893128</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.2438255726818518</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01831308025634559</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.02257810847868751</v>
+        <v>-0</v>
       </c>
       <c r="S3" t="n">
         <v>-0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.003339681265428182</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.03119907112634411</v>
+        <v>0.2521553727442762</v>
       </c>
       <c r="X3" t="n">
-        <v>-0</v>
+        <v>-0.01101138711278343</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1930299860489377</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.06567235165861418</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0.1748403233431227</v>
       </c>
       <c r="AD3" t="n">
         <v>-0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.1011532504869944</v>
+        <v>-0.1058106464584909</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0</v>
+        <v>0.02384449154574922</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.1372429089840001</v>
+        <v>-0</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.0304662762570228</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0</v>
+        <v>-0.02966691018374555</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.07446033689237967</v>
+        <v>0.04108088690785633</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>0.1914674750330189</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0.04068938219396386</v>
+        <v>-0</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.02839971337025972</v>
+        <v>0</v>
       </c>
       <c r="AT3" t="n">
         <v>-0</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0</v>
+        <v>-0.5235037745053465</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.4270892209071545</v>
+        <v>0.1496489113039587</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>0.5488419529259585</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0.3258979973950339</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="n">
         <v>0</v>
       </c>
       <c r="BB3" t="n">
-        <v>-0.1966019857622323</v>
+        <v>-0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0.0402196912504493</v>
       </c>
       <c r="BE3" t="n">
         <v>-0</v>
@@ -1747,214 +1747,214 @@
         <v>-0</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.08905458505849739</v>
+        <v>0.06039441407892389</v>
       </c>
       <c r="BH3" t="n">
-        <v>0</v>
+        <v>0.1294017726708695</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.04633303917672554</v>
+        <v>0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0.08067164384676936</v>
+        <v>0</v>
       </c>
       <c r="BL3" t="n">
         <v>-0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0.05130578619478099</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP3" t="n">
-        <v>-0.112973279282279</v>
+        <v>0.03559945456508799</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0</v>
+        <v>0.01621929215982487</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.03391748340518639</v>
+        <v>-0</v>
       </c>
       <c r="BS3" t="n">
         <v>-0</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.05751206876122419</v>
+        <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0.1893382395793216</v>
       </c>
       <c r="BW3" t="n">
         <v>-0</v>
       </c>
       <c r="BX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY3" t="n">
-        <v>-0.325555366689694</v>
+        <v>0.09683807727074757</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0</v>
+        <v>0.1554974355091424</v>
       </c>
       <c r="CA3" t="n">
-        <v>-0.06406054708466132</v>
+        <v>0</v>
       </c>
       <c r="CB3" t="n">
         <v>0</v>
       </c>
       <c r="CC3" t="n">
-        <v>-0.1004990701514526</v>
+        <v>0</v>
       </c>
       <c r="CD3" t="n">
         <v>-0</v>
       </c>
       <c r="CE3" t="n">
-        <v>-0</v>
+        <v>0.1787705779995226</v>
       </c>
       <c r="CF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG3" t="n">
         <v>-0</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.0602119084283929</v>
+        <v>0.0717589406160572</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0</v>
+        <v>-0.2090931499327498</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.06227326404346162</v>
+        <v>-0</v>
       </c>
       <c r="CK3" t="n">
         <v>-0</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.02019760130753625</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
         <v>-0</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0</v>
+        <v>-0.2190874922434067</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.1832995019112098</v>
+        <v>-0.05483143591776855</v>
       </c>
       <c r="CR3" t="n">
-        <v>0</v>
+        <v>0.1680295747936069</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.0689926967823703</v>
+        <v>-0</v>
       </c>
       <c r="CT3" t="n">
         <v>-0</v>
       </c>
       <c r="CU3" t="n">
-        <v>-0.08049857826964495</v>
+        <v>-0</v>
       </c>
       <c r="CV3" t="n">
         <v>0</v>
       </c>
       <c r="CW3" t="n">
-        <v>0</v>
+        <v>0.1768157856202969</v>
       </c>
       <c r="CX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.0536022464905052</v>
+        <v>0.1077057193695699</v>
       </c>
       <c r="DA3" t="n">
-        <v>0</v>
+        <v>-0.1848690855658262</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.03069348626188154</v>
+        <v>0</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.06432940794075287</v>
+        <v>-0</v>
       </c>
       <c r="DE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>0.2095158532770484</v>
       </c>
       <c r="DG3" t="n">
         <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.2193595848475784</v>
+        <v>-0.4638147544562953</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0</v>
+        <v>-0.03067144500972382</v>
       </c>
       <c r="DK3" t="n">
-        <v>-0.02486434923567108</v>
+        <v>-0</v>
       </c>
       <c r="DL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.08430053385825825</v>
+        <v>-0</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>-0</v>
+        <v>-0.07177072221924095</v>
       </c>
       <c r="DP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ3" t="n">
         <v>-0</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.03516458464802405</v>
+        <v>-0.04785098993027817</v>
       </c>
       <c r="DS3" t="n">
-        <v>0</v>
+        <v>0.05362524308339568</v>
       </c>
       <c r="DT3" t="n">
-        <v>-0.01648196568624151</v>
+        <v>0</v>
       </c>
       <c r="DU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV3" t="n">
-        <v>-0.03609352925665715</v>
+        <v>0</v>
       </c>
       <c r="DW3" t="n">
         <v>-0</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>0.1198949593127527</v>
       </c>
       <c r="DY3" t="n">
         <v>0</v>
@@ -1963,79 +1963,79 @@
         <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.2154834630704345</v>
+        <v>0.01534603344344278</v>
       </c>
       <c r="EB3" t="n">
-        <v>0</v>
+        <v>-0.05196255109410167</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.14650221856725</v>
+        <v>-0</v>
       </c>
       <c r="ED3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0.01497425910514645</v>
+        <v>0</v>
       </c>
       <c r="EF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG3" t="n">
-        <v>-0</v>
+        <v>0.1770581478522699</v>
       </c>
       <c r="EH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI3" t="n">
         <v>-0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.01646618898197288</v>
+        <v>0.1144598983373158</v>
       </c>
       <c r="EK3" t="n">
-        <v>-0</v>
+        <v>-0.239031830952025</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.0348962840699633</v>
+        <v>-0</v>
       </c>
       <c r="EM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.04291847441884803</v>
+        <v>-0</v>
       </c>
       <c r="EO3" t="n">
         <v>-0</v>
       </c>
       <c r="EP3" t="n">
-        <v>-0</v>
+        <v>0.2411851586072027</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.100458138919077</v>
+        <v>-0.0203422858348315</v>
       </c>
       <c r="ET3" t="n">
-        <v>-0</v>
+        <v>0.06274981730326434</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.195381479595219</v>
+        <v>-0</v>
       </c>
       <c r="EV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.08150600524348835</v>
+        <v>0</v>
       </c>
       <c r="EX3" t="n">
         <v>-0</v>
       </c>
       <c r="EY3" t="n">
-        <v>-0</v>
+        <v>0.1778856600445262</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
@@ -2044,312 +2044,312 @@
         <v>-0</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.05027015014143239</v>
+        <v>0.08297070209127283</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0</v>
+        <v>-0.1612714950076537</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.01694234887552849</v>
+        <v>-0</v>
       </c>
       <c r="FE3" t="n">
         <v>-0</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.02606197618302921</v>
+        <v>0</v>
       </c>
       <c r="FG3" t="n">
         <v>-0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0.0282257471536892</v>
       </c>
       <c r="FI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ3" t="n">
         <v>0</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.211295210239676</v>
+        <v>-0.1075289515602455</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0</v>
+        <v>-0.1402432879478821</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.1433567566349843</v>
+        <v>-0</v>
       </c>
       <c r="FN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.0313640256825188</v>
+        <v>-0</v>
       </c>
       <c r="FP3" t="n">
         <v>-0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>-0</v>
+        <v>0.1064274147369041</v>
       </c>
       <c r="FR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS3" t="n">
         <v>0</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.05552693281169901</v>
+        <v>-0.2456477986219479</v>
       </c>
       <c r="FU3" t="n">
-        <v>-0</v>
+        <v>-0.09086484745557065</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.2054065962373789</v>
+        <v>-0</v>
       </c>
       <c r="FW3" t="n">
         <v>-0</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.2342230627119886</v>
+        <v>-0</v>
       </c>
       <c r="FY3" t="n">
         <v>0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>-0</v>
+        <v>0.05948860629039076</v>
       </c>
       <c r="GA3" t="n">
         <v>0</v>
       </c>
       <c r="GB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD3" t="n">
-        <v>0</v>
+        <v>0.07853740624476381</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.1529491432100477</v>
+        <v>-0</v>
       </c>
       <c r="GF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.2796901247557695</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.4596480783981836</v>
+        <v>-0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.3874508007704472</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2980494194499336</v>
+        <v>-0.03395047077138494</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0.2270755947483766</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1307973381970427</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1594601425483845</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.2078949993413584</v>
       </c>
       <c r="L4" t="n">
         <v>-0</v>
       </c>
       <c r="M4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2162948031154457</v>
+        <v>-0.01665115902997345</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.08399396893410399</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1414357103434104</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.08826200415524514</v>
+        <v>-0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.05124363046503104</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.09979740927777576</v>
+        <v>-0.03474747844822836</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-0.02848589941331603</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.07540285799906124</v>
+        <v>-0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.03024487535197845</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.08163047361287627</v>
       </c>
       <c r="AD4" t="n">
         <v>-0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.05909062166342648</v>
+        <v>0.06390554835520706</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0</v>
+        <v>0.0601360128454887</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.2043391967000394</v>
+        <v>-0</v>
       </c>
       <c r="AI4" t="n">
         <v>-0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0.08370290770503261</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0</v>
+        <v>0.03528432908802498</v>
       </c>
       <c r="AM4" t="n">
         <v>-0</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.1301071315386055</v>
+        <v>0.02465296591839248</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>-0.0907374007027431</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0.01834109406228571</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
         <v>-0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.4938427142556065</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0</v>
+        <v>0.3636428938291119</v>
       </c>
       <c r="AV4" t="n">
         <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.05647224407128292</v>
+        <v>0.06890869245370645</v>
       </c>
       <c r="AY4" t="n">
-        <v>-0</v>
+        <v>-0.29304359016392</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0.1611251097965832</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0.1609730176403046</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>0.07672306905817323</v>
       </c>
       <c r="BE4" t="n">
         <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.1362377308472143</v>
+        <v>-0.07070100971356208</v>
       </c>
       <c r="BH4" t="n">
-        <v>0</v>
+        <v>-0.06553800182200217</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.07303276946946324</v>
+        <v>-0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.1887256960605733</v>
+        <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>0.08637630851226828</v>
       </c>
       <c r="BN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.1838589407185225</v>
+        <v>0.001475737793474285</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>0.01741295459082627</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0.02917802129609409</v>
+        <v>-0</v>
       </c>
       <c r="BS4" t="n">
         <v>-0</v>
@@ -2358,226 +2358,226 @@
         <v>-0</v>
       </c>
       <c r="BU4" t="n">
-        <v>-0.2195784672030293</v>
+        <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0</v>
+        <v>0.199602765201402</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
         <v>-0</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.01255785920382638</v>
+        <v>0.01897883554475324</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0</v>
+        <v>-0.06930112512133839</v>
       </c>
       <c r="CA4" t="n">
-        <v>-0.03842308480369284</v>
+        <v>0</v>
       </c>
       <c r="CB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.1881778930849481</v>
+        <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>-0</v>
+        <v>-0.1113829091331204</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.1046527445298883</v>
+        <v>-0.01671776322695669</v>
       </c>
       <c r="CI4" t="n">
-        <v>0</v>
+        <v>0.06135427436978785</v>
       </c>
       <c r="CJ4" t="n">
-        <v>-0.03814059071622043</v>
+        <v>-0</v>
       </c>
       <c r="CK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.1069592149218972</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0.05186765005826738</v>
       </c>
       <c r="CO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.3063148992860903</v>
+        <v>-0.04068156694082709</v>
       </c>
       <c r="CR4" t="n">
-        <v>0</v>
+        <v>-0.08302641975684767</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.1920824929596207</v>
+        <v>-0</v>
       </c>
       <c r="CT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU4" t="n">
         <v>-0</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.189349006343289</v>
+        <v>-0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0</v>
+        <v>-0.08589147513533725</v>
       </c>
       <c r="CX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.02858631435569749</v>
+        <v>-0.02320226993904255</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0</v>
+        <v>0.07034243246373514</v>
       </c>
       <c r="DB4" t="n">
-        <v>-0.01439695689230396</v>
+        <v>0</v>
       </c>
       <c r="DC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD4" t="n">
         <v>-0</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0.05976553358417042</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>-0</v>
+        <v>0.01714624372519016</v>
       </c>
       <c r="DG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.01877513675411454</v>
+        <v>0.03175762329123736</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>0.09261563172504649</v>
       </c>
       <c r="DK4" t="n">
-        <v>-0.005407329665015561</v>
+        <v>0</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM4" t="n">
         <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.01117622349876496</v>
+        <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0</v>
+        <v>-0.04455139915004754</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
         <v>-0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.009897070799229008</v>
+        <v>-0.0135758851142028</v>
       </c>
       <c r="DS4" t="n">
-        <v>0</v>
+        <v>0.04760532894810022</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.103924330510125</v>
+        <v>0</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.01169538842931454</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0</v>
+        <v>-0.08812736933929809</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
         <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.02683691508340237</v>
+        <v>0.02864528670791508</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>-0.008886485838232226</v>
       </c>
       <c r="EC4" t="n">
-        <v>-0.04504018788819606</v>
+        <v>-0</v>
       </c>
       <c r="ED4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.2233698590474442</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>-0</v>
+        <v>-0.07907337974505371</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI4" t="n">
         <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.109961434799754</v>
+        <v>0.02945328416302426</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0</v>
+        <v>0.00332572680377346</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.1204531180471935</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.04244921753036924</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>0.03333430082441175</v>
       </c>
       <c r="EQ4" t="n">
         <v>0</v>
@@ -2586,109 +2586,109 @@
         <v>-0</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.1781321349804807</v>
+        <v>-0.005722260726156698</v>
       </c>
       <c r="ET4" t="n">
-        <v>-0</v>
+        <v>0.01162771201323424</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.07824980172278247</v>
+        <v>-0</v>
       </c>
       <c r="EV4" t="n">
         <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.2079528716030702</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>-0</v>
+        <v>-0.08376080747467379</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.04719250409857998</v>
+        <v>-0.02378717644474544</v>
       </c>
       <c r="FC4" t="n">
-        <v>0</v>
+        <v>0.06674066193412108</v>
       </c>
       <c r="FD4" t="n">
-        <v>-0.02634881027633535</v>
+        <v>-0</v>
       </c>
       <c r="FE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.1771406122574546</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0</v>
+        <v>-0.01036202341403117</v>
       </c>
       <c r="FI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.04490476782093007</v>
+        <v>-0.05623563800697546</v>
       </c>
       <c r="FL4" t="n">
-        <v>-0</v>
+        <v>-0.09894140802520782</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0.1132958641870359</v>
+        <v>-0</v>
       </c>
       <c r="FN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO4" t="n">
         <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0.036329884291179</v>
+        <v>-0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0</v>
+        <v>-0.08322598738839902</v>
       </c>
       <c r="FR4" t="n">
         <v>-0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT4" t="n">
-        <v>-0.04120913180148485</v>
+        <v>0.04570183379035343</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>-0.03495818265062459</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.01598775017286472</v>
+        <v>-0</v>
       </c>
       <c r="FW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX4" t="n">
         <v>-0</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0.05435331693178562</v>
+        <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>-0</v>
+        <v>-0.02367351295933759</v>
       </c>
       <c r="GA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
         <v>-0</v>
@@ -2697,13 +2697,13 @@
         <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>-0</v>
+        <v>-0.08824629353410182</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0.03815306763743201</v>
+        <v>-0</v>
       </c>
       <c r="GF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG4" t="n">
         <v>-0</v>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E5" t="n">
         <v>-0</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N5" t="n">
         <v>-0</v>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W5" t="n">
         <v>-0</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF5" t="n">
         <v>-0</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
         <v>0</v>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO5" t="n">
         <v>-0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX5" t="n">
         <v>-0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG5" t="n">
         <v>-0</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
         <v>0</v>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP5" t="n">
         <v>-0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY5" t="n">
         <v>-0</v>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="CC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD5" t="n">
         <v>0</v>
@@ -2963,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH5" t="n">
         <v>-0</v>
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="CL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM5" t="n">
         <v>0</v>
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ5" t="n">
         <v>-0</v>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV5" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI5" t="n">
         <v>0</v>
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="DM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN5" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR5" t="n">
         <v>-0</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW5" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="EI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ5" t="n">
         <v>-0</v>
@@ -3140,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="EN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO5" t="n">
         <v>0</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES5" t="n">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX5" t="n">
         <v>0</v>
@@ -3179,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB5" t="n">
         <v>-0</v>
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG5" t="n">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK5" t="n">
         <v>-0</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0.06224943633368885</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -3292,25 +3292,25 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002628753950353614</v>
+        <v>-0.0114209267401579</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>-0.02740243685190335</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.01211521431058426</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06783880642510985</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0.01671256548445396</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -3319,25 +3319,25 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.01773614615356753</v>
+        <v>-0.01502450176646141</v>
       </c>
       <c r="O6" t="n">
-        <v>-0</v>
+        <v>-0.001184291032769072</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.0006728267054173782</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.04166204157230434</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0</v>
+        <v>-0.001556396622077524</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -3346,133 +3346,133 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.006230333520883345</v>
+        <v>-0.0109133616553189</v>
       </c>
       <c r="X6" t="n">
-        <v>-0</v>
+        <v>0.01836830858538081</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.009352114061386911</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.0008851082227634664</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
         <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0</v>
+        <v>0.02035296746675229</v>
       </c>
       <c r="AD6" t="n">
         <v>-0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.00132018762706145</v>
+        <v>0.02225610772645462</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>0.009062274825080737</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.01913917382723316</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0.02033584457508617</v>
+        <v>-0</v>
       </c>
       <c r="AK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0</v>
+        <v>0.01252364605983017</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.003294757451125241</v>
+        <v>-0.00504138848206248</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>-0.006518174836278194</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.003286187885496646</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0.004988084230281952</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
         <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0</v>
+        <v>0.06901274306167544</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.03713870930382231</v>
+        <v>-0.01334082641118218</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0.01492540330220632</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.03862787437596343</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.06956271947838077</v>
+        <v>0</v>
       </c>
       <c r="BC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0</v>
+        <v>0.01777082046096212</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
         <v>-0</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.02100305543534846</v>
+        <v>-0.009727269197194613</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>-0.004726103043218043</v>
       </c>
       <c r="BI6" t="n">
-        <v>-0.0133836623413231</v>
+        <v>-0</v>
       </c>
       <c r="BJ6" t="n">
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.001561932486802825</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>-0</v>
+        <v>0.03490764249113346</v>
       </c>
       <c r="BN6" t="n">
         <v>-0</v>
@@ -3481,52 +3481,52 @@
         <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.02172239187325734</v>
+        <v>0.01983525758967593</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-0</v>
+        <v>0.01235869720408697</v>
       </c>
       <c r="BR6" t="n">
-        <v>-0.005852638534619042</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>-0.005794657304155189</v>
+        <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>0.02703597504151779</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.03672213620842861</v>
+        <v>-0.02403148486275934</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-0</v>
+        <v>0.01858641686547517</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0.002404265236313449</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
         <v>-0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.03386499845305165</v>
+        <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0.002234446736254342</v>
       </c>
       <c r="CF6" t="n">
         <v>-0</v>
@@ -3535,25 +3535,25 @@
         <v>0</v>
       </c>
       <c r="CH6" t="n">
-        <v>-0.005143817522953231</v>
+        <v>-0.002360752079200103</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>0.01518875879815906</v>
       </c>
       <c r="CJ6" t="n">
-        <v>-0.004096267091746915</v>
+        <v>0</v>
       </c>
       <c r="CK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>-0.006910855168384912</v>
+        <v>-0</v>
       </c>
       <c r="CM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>0.0092330499435115</v>
       </c>
       <c r="CO6" t="n">
         <v>0</v>
@@ -3562,133 +3562,133 @@
         <v>0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0.03376711104025423</v>
+        <v>0.005933552745769359</v>
       </c>
       <c r="CR6" t="n">
-        <v>-0</v>
+        <v>-0.03118092089990477</v>
       </c>
       <c r="CS6" t="n">
-        <v>-0.01192868566568389</v>
+        <v>0</v>
       </c>
       <c r="CT6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.0382009509101771</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>-0</v>
+        <v>0.0004665478950981532</v>
       </c>
       <c r="CX6" t="n">
         <v>0</v>
       </c>
       <c r="CY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>-0.001848914085265987</v>
+        <v>-0.002164285582403092</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0</v>
+        <v>0.01801410187019785</v>
       </c>
       <c r="DB6" t="n">
-        <v>0.001303661038674483</v>
+        <v>-0</v>
       </c>
       <c r="DC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0.01330015403254059</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>0.0001361144816858302</v>
       </c>
       <c r="DG6" t="n">
         <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0.03139673721089025</v>
+        <v>0.01749953784304399</v>
       </c>
       <c r="DJ6" t="n">
-        <v>-0</v>
+        <v>0.01387908731390689</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.01845878563578705</v>
+        <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM6" t="n">
-        <v>-0.001460521425270595</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0.00100578117325801</v>
       </c>
       <c r="DP6" t="n">
         <v>-0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>-0.004785554542604667</v>
+        <v>0.01729127750131859</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>0.005484286883990138</v>
       </c>
       <c r="DT6" t="n">
-        <v>0.003144298994464922</v>
+        <v>0</v>
       </c>
       <c r="DU6" t="n">
         <v>-0</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.01444913483922899</v>
+        <v>-0</v>
       </c>
       <c r="DW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX6" t="n">
-        <v>-0</v>
+        <v>-0.02190529090153009</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
         <v>0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.0271773323849172</v>
+        <v>-0.03121019965008268</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>-0.01495338696032404</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0.01369008816231613</v>
+        <v>-0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
       </c>
       <c r="EE6" t="n">
-        <v>-0.0153303703843403</v>
+        <v>-0</v>
       </c>
       <c r="EF6" t="n">
         <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>4.40058778072375e-05</v>
       </c>
       <c r="EH6" t="n">
         <v>-0</v>
@@ -3697,52 +3697,52 @@
         <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.01042347488381997</v>
+        <v>-0.002716373875677202</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>0.006223908973884969</v>
       </c>
       <c r="EL6" t="n">
-        <v>-0.005742946104046857</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN6" t="n">
-        <v>-0.01745567516792758</v>
+        <v>-0</v>
       </c>
       <c r="EO6" t="n">
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>0.008985119500760025</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.002608517799636231</v>
+        <v>-0.02272589096221852</v>
       </c>
       <c r="ET6" t="n">
-        <v>0</v>
+        <v>-0.03944972242948464</v>
       </c>
       <c r="EU6" t="n">
-        <v>-0.03443043310374996</v>
+        <v>-0</v>
       </c>
       <c r="EV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>-0.01123183028224872</v>
+        <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>0.004265206278172327</v>
       </c>
       <c r="EZ6" t="n">
         <v>-0</v>
@@ -3751,52 +3751,52 @@
         <v>0</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.000657296720528439</v>
+        <v>-0.003206415078600628</v>
       </c>
       <c r="FC6" t="n">
-        <v>0</v>
+        <v>0.01967251591599786</v>
       </c>
       <c r="FD6" t="n">
-        <v>0.0002356537446768589</v>
+        <v>0</v>
       </c>
       <c r="FE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF6" t="n">
-        <v>-0.01042582068189998</v>
+        <v>-0</v>
       </c>
       <c r="FG6" t="n">
         <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0</v>
+        <v>-0.02127645294242974</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
         <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.01482336527075985</v>
+        <v>-0.03155241481391572</v>
       </c>
       <c r="FL6" t="n">
-        <v>-0</v>
+        <v>0.00601853008126948</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0.006711552280102608</v>
+        <v>-0</v>
       </c>
       <c r="FN6" t="n">
         <v>-0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0.01665654843652232</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
         <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>-0.005764667468911485</v>
       </c>
       <c r="FR6" t="n">
         <v>0</v>
@@ -3805,46 +3805,46 @@
         <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.01009673531320589</v>
+        <v>-0.008476663023248385</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>0.03280955647058911</v>
       </c>
       <c r="FV6" t="n">
-        <v>-0.008082834286744889</v>
+        <v>-0</v>
       </c>
       <c r="FW6" t="n">
         <v>-0</v>
       </c>
       <c r="FX6" t="n">
-        <v>0.009178033118802897</v>
+        <v>0</v>
       </c>
       <c r="FY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0</v>
+        <v>-0.01225664623687978</v>
       </c>
       <c r="GA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC6" t="n">
         <v>-0</v>
       </c>
       <c r="GD6" t="n">
-        <v>-0</v>
+        <v>-0.006697259039169762</v>
       </c>
       <c r="GE6" t="n">
-        <v>-0.02003614866318084</v>
+        <v>0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
-        <v>-0.02784894403903606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3852,70 +3852,70 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>0.2652664475030307</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.06954262558292801</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.09325340356073333</v>
       </c>
       <c r="E7" t="n">
-        <v>0.005577299598977827</v>
+        <v>-0.06988725101901165</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H7" t="n">
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1061666659780846</v>
+        <v>-0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0.1605030235446298</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03151696825538226</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>-0</v>
+        <v>-0.04710822884591285</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.02993618236501348</v>
+        <v>-0.08514537463084741</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.08331284617286369</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-0</v>
+        <v>0.06431317181450134</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.002037773988552015</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>0.01635446035742453</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01061834578511671</v>
+        <v>0.03294969041300178</v>
       </c>
       <c r="X7" t="n">
         <v>-0</v>
@@ -3924,160 +3924,160 @@
         <v>-0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01193951678195244</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
         <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0</v>
+        <v>0.07944423913867073</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.02934923888538785</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>-0.0397042123027938</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.01193214955922826</v>
+        <v>0.0008109963619231852</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
         <v>-0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.04175362958329713</v>
+        <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.01742706391422246</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.008928130793823173</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>-0.02631346826749787</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.01960749557442997</v>
+        <v>-0.05340751852325941</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0.002007006382459119</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.3298064580889729</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.1126583548525964</v>
+        <v>0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>-0.006624944764529754</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.01020671070221106</v>
+        <v>0.1140736179420841</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
         <v>-0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.08636476859637106</v>
+        <v>-0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0</v>
+        <v>0.02030331822467515</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.02218186935931246</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0</v>
+        <v>-0.03384676526644614</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.00420265784429676</v>
+        <v>-0.1036884694588265</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0.005952352575429558</v>
+        <v>0</v>
       </c>
       <c r="BL7" t="n">
         <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.07850916575384327</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.030228949815143</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>-0</v>
+        <v>0.06521045282843832</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.04979729793410032</v>
+        <v>0.08048964616927427</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
       </c>
       <c r="BR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>-0.01847291422816251</v>
+        <v>-0</v>
       </c>
       <c r="BU7" t="n">
         <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>-0</v>
+        <v>0.1485442861897867</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0.01927813355805893</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0</v>
+        <v>0.002508761288223753</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.02157101253682591</v>
+        <v>0.03051742144025043</v>
       </c>
       <c r="BZ7" t="n">
         <v>-0</v>
@@ -4089,22 +4089,22 @@
         <v>-0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.05755500545519084</v>
+        <v>-0</v>
       </c>
       <c r="CD7" t="n">
         <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.05752507748863129</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.02802875895633383</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>0</v>
+        <v>0.006065318679843465</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.004635145834441229</v>
+        <v>-0.0004252281769985802</v>
       </c>
       <c r="CI7" t="n">
         <v>-0</v>
@@ -4116,22 +4116,22 @@
         <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>-0.02227642221589165</v>
+        <v>-0</v>
       </c>
       <c r="CM7" t="n">
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.04339387129406846</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.0006689406465406543</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>0</v>
+        <v>-0.08630849986522827</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.01249016089458898</v>
+        <v>-0.0832420540637121</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.04920366492446601</v>
+        <v>-0</v>
       </c>
       <c r="CV7" t="n">
         <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>0</v>
+        <v>-0.03931765052321663</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.01685688338113029</v>
+        <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>0</v>
+        <v>0.02371364483347937</v>
       </c>
       <c r="CZ7" t="n">
-        <v>-0.003861155588662438</v>
+        <v>0.001915230437197968</v>
       </c>
       <c r="DA7" t="n">
         <v>0</v>
@@ -4167,28 +4167,28 @@
         <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0.02249209802930246</v>
+        <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.0004375120734241249</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.03039696505071349</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0</v>
+        <v>0.01615065637976668</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.002842681120284311</v>
+        <v>-0.01487349237295285</v>
       </c>
       <c r="DJ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK7" t="n">
         <v>-0</v>
@@ -4197,25 +4197,25 @@
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.04361967103161021</v>
+        <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.05139983726536106</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.005573844172544883</v>
+        <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0</v>
+        <v>-0.05461472931191981</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.0164401176111527</v>
+        <v>-0.004989343966424962</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT7" t="n">
         <v>0</v>
@@ -4224,22 +4224,22 @@
         <v>-0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.02072978595590369</v>
+        <v>-0</v>
       </c>
       <c r="DW7" t="n">
         <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>0</v>
+        <v>0.03538655913676677</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.007014058008105714</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0</v>
+        <v>-0.03182348403502251</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.007154930123983802</v>
+        <v>-0.01354774312725723</v>
       </c>
       <c r="EB7" t="n">
         <v>0</v>
@@ -4248,52 +4248,52 @@
         <v>0</v>
       </c>
       <c r="ED7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0.01303137773921664</v>
+        <v>-0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.02713376799883064</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.01436263851332494</v>
+        <v>-0</v>
       </c>
       <c r="EI7" t="n">
-        <v>0</v>
+        <v>0.07590011708084718</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.02540933616163303</v>
+        <v>0.03578956315362165</v>
       </c>
       <c r="EK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL7" t="n">
         <v>-0</v>
       </c>
       <c r="EM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN7" t="n">
-        <v>-0.02018709126146238</v>
+        <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.04834918944509249</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.00846638609303314</v>
+        <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0</v>
+        <v>-0.04144476314900959</v>
       </c>
       <c r="ES7" t="n">
-        <v>-0.006030886906675787</v>
+        <v>0.01040967670143023</v>
       </c>
       <c r="ET7" t="n">
         <v>-0</v>
@@ -4302,25 +4302,25 @@
         <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0.04175241521945895</v>
+        <v>-0</v>
       </c>
       <c r="EX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.04802192912613931</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.02123330799605756</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0</v>
+        <v>0.01856460359664011</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.009615400334774741</v>
+        <v>0.01173117629432144</v>
       </c>
       <c r="FC7" t="n">
         <v>-0</v>
@@ -4329,52 +4329,52 @@
         <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF7" t="n">
-        <v>-0.02971950387469106</v>
+        <v>0</v>
       </c>
       <c r="FG7" t="n">
         <v>-0</v>
       </c>
       <c r="FH7" t="n">
-        <v>-0</v>
+        <v>0.0405729457343973</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.02760638622742099</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0</v>
+        <v>0.04545136167327622</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.02120272030826232</v>
+        <v>-0.02195954387739732</v>
       </c>
       <c r="FL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0.02714277527589404</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0.001390178938890903</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.01375822307222161</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>-0</v>
+        <v>0.01088834345498924</v>
       </c>
       <c r="FT7" t="n">
-        <v>-0.0008497027719432636</v>
+        <v>0.04189746052114594</v>
       </c>
       <c r="FU7" t="n">
         <v>-0</v>
@@ -4386,34 +4386,34 @@
         <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.004179208014630348</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0</v>
+        <v>-0.006303847694071393</v>
       </c>
       <c r="GA7" t="n">
-        <v>-0.004473913902734839</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0</v>
+        <v>-0.01927570199074076</v>
       </c>
       <c r="GC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD7" t="n">
         <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0.02976617630318096</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -4442,13 +4442,13 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -4469,13 +4469,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -4496,13 +4496,13 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -4523,13 +4523,13 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -4550,13 +4550,13 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
@@ -4577,13 +4577,13 @@
         <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
@@ -4604,13 +4604,13 @@
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL8" t="n">
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
@@ -4631,13 +4631,13 @@
         <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
@@ -4658,13 +4658,13 @@
         <v>0</v>
       </c>
       <c r="CC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD8" t="n">
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
@@ -4685,13 +4685,13 @@
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="CU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV8" t="n">
         <v>0</v>
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
@@ -4766,13 +4766,13 @@
         <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
         <v>0</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
@@ -4847,13 +4847,13 @@
         <v>0</v>
       </c>
       <c r="EN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO8" t="n">
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
@@ -4874,13 +4874,13 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX8" t="n">
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
@@ -4901,13 +4901,13 @@
         <v>0</v>
       </c>
       <c r="FF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG8" t="n">
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="FO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
         <v>0</v>
@@ -4987,19 +4987,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0.2813035719948727</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.03209039389285399</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0</v>
+        <v>-0.0301008823231791</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02078486045303827</v>
+        <v>-0.05643782752801008</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5011,103 +5011,103 @@
         <v>-0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08018758476098665</v>
+        <v>-0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0</v>
+        <v>0.1449406442154503</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.01122846565668511</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>-0</v>
+        <v>-0.01227820440265649</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.02493626480117951</v>
+        <v>-0.05214580352960676</v>
       </c>
       <c r="O9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.06850111726710972</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-0</v>
+        <v>0.04178432427669106</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.007666366046988506</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>-0.02043399758191116</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.01579114208266591</v>
+        <v>0.03999173490385394</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y9" t="n">
         <v>-0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.02274491590328765</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
         <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.04844257036043886</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.02909245463925698</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0</v>
+        <v>-0.01199536932348555</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.01432596209427262</v>
+        <v>0.005327766004050346</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-0.03705593898328819</v>
+        <v>-0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>-0.0148863883364908</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0.0007520665222588576</v>
+        <v>-0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>-0.01167318656378591</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.02157753670763875</v>
+        <v>-0.03011800953279444</v>
       </c>
       <c r="AP9" t="n">
         <v>0</v>
@@ -5119,103 +5119,103 @@
         <v>-0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.0006785408343418466</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
         <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>0.2594349257693344</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0.04539351017638521</v>
+        <v>-0</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0</v>
+        <v>0.03112393365565282</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.01880435016195594</v>
+        <v>0.05296356718650179</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
         <v>-0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.07458262316952993</v>
+        <v>-0</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>-0</v>
+        <v>0.05950022986860797</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0.02223527429595802</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>-0</v>
+        <v>-0.05342703258022106</v>
       </c>
       <c r="BG9" t="n">
-        <v>-9.152639778427129e-05</v>
+        <v>-0.04975569349601068</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ9" t="n">
         <v>0</v>
       </c>
       <c r="BK9" t="n">
-        <v>-0.02229386264732589</v>
+        <v>0</v>
       </c>
       <c r="BL9" t="n">
         <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>-0</v>
+        <v>0.106985337916301</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.04584106117317892</v>
+        <v>0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0</v>
+        <v>0.01641749343003522</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.04041230062705919</v>
+        <v>0.09260111423073636</v>
       </c>
       <c r="BQ9" t="n">
         <v>-0</v>
       </c>
       <c r="BR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
-        <v>-0.02084764905193355</v>
+        <v>-0</v>
       </c>
       <c r="BU9" t="n">
         <v>-0</v>
       </c>
       <c r="BV9" t="n">
-        <v>-0</v>
+        <v>0.1307778550860325</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0.0003016820969286604</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0</v>
+        <v>0.02320385709261587</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.03392756825727432</v>
+        <v>0.02381837787731442</v>
       </c>
       <c r="BZ9" t="n">
         <v>-0</v>
@@ -5227,49 +5227,49 @@
         <v>-0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.05709685376878756</v>
+        <v>-0</v>
       </c>
       <c r="CD9" t="n">
         <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0.05267134566128882</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.02167954570082242</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>0</v>
+        <v>-0.005832734112573052</v>
       </c>
       <c r="CH9" t="n">
-        <v>-0.003523576901800031</v>
+        <v>0.005641751575165319</v>
       </c>
       <c r="CI9" t="n">
         <v>-0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>-0.01054808909882439</v>
+        <v>0</v>
       </c>
       <c r="CM9" t="n">
         <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>-0.05886561677130826</v>
       </c>
       <c r="CO9" t="n">
-        <v>0.007271967780298751</v>
+        <v>-0</v>
       </c>
       <c r="CP9" t="n">
-        <v>0</v>
+        <v>-0.03483614577236063</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-0.04715603236864324</v>
+        <v>-0.06252193968245229</v>
       </c>
       <c r="CR9" t="n">
         <v>0</v>
@@ -5278,25 +5278,25 @@
         <v>0</v>
       </c>
       <c r="CT9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.0436030446832588</v>
+        <v>-0</v>
       </c>
       <c r="CV9" t="n">
         <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>-0</v>
+        <v>-0.03537030496982597</v>
       </c>
       <c r="CX9" t="n">
-        <v>0.01963252583234125</v>
+        <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0</v>
+        <v>0.006124552125493847</v>
       </c>
       <c r="CZ9" t="n">
-        <v>-0.01499658432653919</v>
+        <v>0.002955863352439839</v>
       </c>
       <c r="DA9" t="n">
         <v>0</v>
@@ -5308,25 +5308,25 @@
         <v>0</v>
       </c>
       <c r="DD9" t="n">
-        <v>-0.01408834790053051</v>
+        <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.009049605335281114</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.03910588981692117</v>
+        <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>-0</v>
+        <v>0.05063832496443729</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.001218569029551518</v>
+        <v>0.007324616173862491</v>
       </c>
       <c r="DJ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK9" t="n">
         <v>-0</v>
@@ -5335,49 +5335,49 @@
         <v>0</v>
       </c>
       <c r="DM9" t="n">
-        <v>0.007170107951663569</v>
+        <v>0</v>
       </c>
       <c r="DN9" t="n">
         <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.062938030785407</v>
       </c>
       <c r="DP9" t="n">
-        <v>-0.02896108947410043</v>
+        <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0</v>
+        <v>0.003870150912557851</v>
       </c>
       <c r="DR9" t="n">
-        <v>-3.648624829489092e-05</v>
+        <v>-0.01715135228154514</v>
       </c>
       <c r="DS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU9" t="n">
         <v>-0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.02989581537107689</v>
+        <v>-0</v>
       </c>
       <c r="DW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>0.001620471671114557</v>
       </c>
       <c r="DY9" t="n">
-        <v>0.00114335371413989</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0</v>
+        <v>-0.00997841698006505</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.009918933590003081</v>
+        <v>-0.03203509119809108</v>
       </c>
       <c r="EB9" t="n">
         <v>0</v>
@@ -5389,154 +5389,154 @@
         <v>0</v>
       </c>
       <c r="EE9" t="n">
-        <v>-0.01529047079382082</v>
+        <v>0</v>
       </c>
       <c r="EF9" t="n">
         <v>-0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0.03387613475128066</v>
       </c>
       <c r="EH9" t="n">
-        <v>0.01271603822229961</v>
+        <v>-0</v>
       </c>
       <c r="EI9" t="n">
-        <v>0</v>
+        <v>-0.001585720219689498</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.02517597302419776</v>
+        <v>0.04901037069550478</v>
       </c>
       <c r="EK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL9" t="n">
         <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
-        <v>-0.01143449667068123</v>
+        <v>-0</v>
       </c>
       <c r="EO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0.02368006165593776</v>
       </c>
       <c r="EQ9" t="n">
-        <v>-0.02951831474124962</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0</v>
+        <v>0.006879093251294921</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.003984697372490427</v>
+        <v>0.02384752590249433</v>
       </c>
       <c r="ET9" t="n">
         <v>-0</v>
       </c>
       <c r="EU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV9" t="n">
         <v>-0</v>
       </c>
       <c r="EW9" t="n">
-        <v>-0.02495303452396142</v>
+        <v>0</v>
       </c>
       <c r="EX9" t="n">
         <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0.03412589096124122</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0.02054350799687009</v>
+        <v>0</v>
       </c>
       <c r="FA9" t="n">
-        <v>0</v>
+        <v>0.0001089485766206362</v>
       </c>
       <c r="FB9" t="n">
-        <v>-0.0002128415894492026</v>
+        <v>0.01320349637276338</v>
       </c>
       <c r="FC9" t="n">
         <v>-0</v>
       </c>
       <c r="FD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE9" t="n">
         <v>-0</v>
       </c>
       <c r="FF9" t="n">
-        <v>-0.02049180423338793</v>
+        <v>0</v>
       </c>
       <c r="FG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>0.0149542454249308</v>
       </c>
       <c r="FI9" t="n">
-        <v>0.02523959680750743</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0</v>
+        <v>0.01884184398715685</v>
       </c>
       <c r="FK9" t="n">
-        <v>-0.03530399162005065</v>
+        <v>-0.0357610994547067</v>
       </c>
       <c r="FL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM9" t="n">
         <v>-0</v>
       </c>
       <c r="FN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0.04054512953703017</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>-0</v>
+        <v>-0.02803855844894806</v>
       </c>
       <c r="FR9" t="n">
-        <v>0.01423414220738527</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>0</v>
+        <v>-0.01376656434050059</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.02405846473732659</v>
+        <v>0.007241233376714142</v>
       </c>
       <c r="FU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX9" t="n">
-        <v>-0.006733090605020314</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0</v>
+        <v>-0.004899291516374995</v>
       </c>
       <c r="GA9" t="n">
-        <v>0.01047415326700448</v>
+        <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0</v>
+        <v>-0.0186763988837574</v>
       </c>
       <c r="GC9" t="n">
         <v>-0</v>
@@ -5548,10 +5548,10 @@
         <v>0</v>
       </c>
       <c r="GF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>-0.01806095687089017</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
@@ -5559,127 +5559,127 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.1753325542458682</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1353511022470101</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.02940705825120163</v>
+        <v>-0.001861025648660907</v>
       </c>
       <c r="F10" t="n">
-        <v>-0</v>
+        <v>-0.1201682660389519</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2147362602636878</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.1168889493713425</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.06754968182124903</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.02032949436868954</v>
+        <v>-0.01017045448786457</v>
       </c>
       <c r="O10" t="n">
-        <v>-0</v>
+        <v>-0.08542626605887788</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
         <v>-0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1771453685553847</v>
+        <v>-0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T10" t="n">
-        <v>-0</v>
+        <v>0.008446767148017184</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.03950671274104939</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1322144969855618</v>
+        <v>-0.01278187809399203</v>
       </c>
       <c r="X10" t="n">
-        <v>-0</v>
+        <v>-0.002970754225196949</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.05897641946913758</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
         <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0</v>
+        <v>0.02394926874866394</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.03105306885401268</v>
+        <v>-0</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.02489924619707295</v>
+        <v>0.01781980329618022</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>-0.009280291295394521</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-0.07907122723629693</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>0.003413801094535957</v>
       </c>
       <c r="AM10" t="n">
         <v>-0</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0.03076439323988071</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.006911978839894442</v>
+        <v>-0.01244339580283066</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>-0.02616287028459998</v>
       </c>
       <c r="AQ10" t="n">
         <v>0</v>
@@ -5688,25 +5688,25 @@
         <v>-0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.01368703063877028</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>0.1234868949431828</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>-0.09928441055313711</v>
+        <v>0</v>
       </c>
       <c r="AX10" t="n">
-        <v>-0.02768841472529124</v>
+        <v>-0.005904159878943866</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>-0.0617998178080619</v>
       </c>
       <c r="AZ10" t="n">
         <v>0</v>
@@ -5715,52 +5715,52 @@
         <v>-0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.1214271758365886</v>
+        <v>0</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>-0</v>
+        <v>0.0579982268392056</v>
       </c>
       <c r="BE10" t="n">
         <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.004217570470927284</v>
+        <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.02390858417700231</v>
+        <v>-0.02605781511664183</v>
       </c>
       <c r="BH10" t="n">
-        <v>-0</v>
+        <v>-0.04952963543871915</v>
       </c>
       <c r="BI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ10" t="n">
         <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.02168781763849206</v>
+        <v>-0</v>
       </c>
       <c r="BL10" t="n">
         <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0</v>
+        <v>0.05518064957611164</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>-0.01430314423101639</v>
+        <v>-0</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.01965903198258766</v>
+        <v>0.03374109603009773</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0</v>
+        <v>0.006923230405654165</v>
       </c>
       <c r="BR10" t="n">
         <v>-0</v>
@@ -5769,322 +5769,322 @@
         <v>0</v>
       </c>
       <c r="BT10" t="n">
-        <v>-0.05159443115501796</v>
+        <v>0</v>
       </c>
       <c r="BU10" t="n">
         <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0</v>
+        <v>0.05694431402149773</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>-0.1028533747139868</v>
+        <v>0</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.01567228130517523</v>
+        <v>-0.00878505706844354</v>
       </c>
       <c r="BZ10" t="n">
-        <v>-0</v>
+        <v>-0.0137865728751884</v>
       </c>
       <c r="CA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.1498592217369965</v>
+        <v>0</v>
       </c>
       <c r="CD10" t="n">
         <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.03215815943760334</v>
       </c>
       <c r="CF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.03580531678162632</v>
+        <v>-0</v>
       </c>
       <c r="CH10" t="n">
-        <v>-0.005447297767392473</v>
+        <v>-0.004434494349291136</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0</v>
+        <v>0.02646885193407263</v>
       </c>
       <c r="CJ10" t="n">
         <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL10" t="n">
-        <v>-0.02142113316066932</v>
+        <v>0</v>
       </c>
       <c r="CM10" t="n">
         <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.02154523065644725</v>
       </c>
       <c r="CO10" t="n">
         <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.04113906604889182</v>
+        <v>0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-0.07298408667848277</v>
+        <v>0.01984179989931486</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0</v>
+        <v>-0.01176309421974564</v>
       </c>
       <c r="CS10" t="n">
         <v>-0</v>
       </c>
       <c r="CT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.04651469900622616</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
         <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0</v>
+        <v>-0.02096775553385949</v>
       </c>
       <c r="CX10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.0410971577612139</v>
+        <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.018444816303219</v>
+        <v>-0.004598259934741873</v>
       </c>
       <c r="DA10" t="n">
-        <v>-0</v>
+        <v>0.02479488552370201</v>
       </c>
       <c r="DB10" t="n">
         <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD10" t="n">
-        <v>-0.0330518395585046</v>
+        <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.00942792377255054</v>
       </c>
       <c r="DG10" t="n">
         <v>-0</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.02035605395075621</v>
+        <v>-0</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.005369650918023562</v>
+        <v>0.001745953236460921</v>
       </c>
       <c r="DJ10" t="n">
-        <v>-0</v>
+        <v>0.003802847433232294</v>
       </c>
       <c r="DK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL10" t="n">
         <v>-0</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.00401807573706854</v>
+        <v>0</v>
       </c>
       <c r="DN10" t="n">
         <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.02257252574968996</v>
       </c>
       <c r="DP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>-0.01016389673639848</v>
+        <v>-0</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.01280099658569256</v>
+        <v>0.01153485178943712</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0</v>
+        <v>-0.006552027293018942</v>
       </c>
       <c r="DT10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU10" t="n">
         <v>-0</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.04803208735163849</v>
+        <v>0</v>
       </c>
       <c r="DW10" t="n">
         <v>-0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>0.001428693419632627</v>
       </c>
       <c r="DY10" t="n">
         <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>-0.02366374015462998</v>
+        <v>-0</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.01345859449243447</v>
+        <v>-0.0113888537677719</v>
       </c>
       <c r="EB10" t="n">
-        <v>0</v>
+        <v>-0.006446938993383253</v>
       </c>
       <c r="EC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED10" t="n">
         <v>-0</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.04090932734933022</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
         <v>-0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.01541279637381846</v>
       </c>
       <c r="EH10" t="n">
         <v>-0</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.05624636308505779</v>
+        <v>0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.02827469226915966</v>
+        <v>0.006183279215854137</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0</v>
+        <v>0.016938949630433</v>
       </c>
       <c r="EL10" t="n">
         <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN10" t="n">
-        <v>-0.03873929996928524</v>
+        <v>0</v>
       </c>
       <c r="EO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>-0.01768352447244188</v>
       </c>
       <c r="EQ10" t="n">
         <v>-0</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.04598629261221045</v>
+        <v>-0</v>
       </c>
       <c r="ES10" t="n">
-        <v>-0.03297379422687514</v>
+        <v>0.0005301889719515236</v>
       </c>
       <c r="ET10" t="n">
-        <v>0</v>
+        <v>0.03615955052527879</v>
       </c>
       <c r="EU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW10" t="n">
-        <v>-0.04373674230010558</v>
+        <v>-0</v>
       </c>
       <c r="EX10" t="n">
         <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.0236515397506165</v>
       </c>
       <c r="EZ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.03301689016437567</v>
+        <v>-0</v>
       </c>
       <c r="FB10" t="n">
-        <v>-0.008116098690416117</v>
+        <v>0.001030799584953018</v>
       </c>
       <c r="FC10" t="n">
-        <v>0</v>
+        <v>0.02870306760235427</v>
       </c>
       <c r="FD10" t="n">
         <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF10" t="n">
-        <v>-0.04577278615824795</v>
+        <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>-0.002023748522333679</v>
       </c>
       <c r="FI10" t="n">
         <v>0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.009089422139167183</v>
+        <v>-0</v>
       </c>
       <c r="FK10" t="n">
-        <v>-0.03996921785678936</v>
+        <v>-0.02117964532220485</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0</v>
+        <v>0.01691733208547199</v>
       </c>
       <c r="FM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN10" t="n">
         <v>-0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0.01943782598840514</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>-0</v>
+        <v>-0.0102355319626828</v>
       </c>
       <c r="FR10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
-        <v>-0.002892391521873573</v>
+        <v>0</v>
       </c>
       <c r="FT10" t="n">
-        <v>-0.01009880177086654</v>
+        <v>-0.0214387972297884</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0</v>
+        <v>0.001205723560567617</v>
       </c>
       <c r="FV10" t="n">
         <v>-0</v>
@@ -6093,34 +6093,34 @@
         <v>-0</v>
       </c>
       <c r="FX10" t="n">
-        <v>-0.03463925068986475</v>
+        <v>0</v>
       </c>
       <c r="FY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>-0.02293660569364711</v>
       </c>
       <c r="GA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.03265498363295147</v>
+        <v>-0</v>
       </c>
       <c r="GC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD10" t="n">
-        <v>-0</v>
+        <v>-0.0188488363080928</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
         <v>-0</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.01397974167240189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -6131,184 +6131,184 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.3345422045462771</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-0.1040163273759496</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2082435317359511</v>
+        <v>-0.05689265839859305</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.211650760976217</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3265428453289975</v>
+        <v>-0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.2614667340631677</v>
       </c>
       <c r="M11" t="n">
-        <v>-0</v>
+        <v>-0.1237982883111269</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2839654521669653</v>
+        <v>-0.1247101020966574</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.1854174634396233</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.401557998512695</v>
+        <v>-0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-0</v>
+        <v>0.09688481565730274</v>
       </c>
       <c r="V11" t="n">
-        <v>-0</v>
+        <v>-0.02582500224957221</v>
       </c>
       <c r="W11" t="n">
-        <v>0.09637023281604587</v>
+        <v>0.03479458580762092</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.03850495607117745</v>
+        <v>-0</v>
       </c>
       <c r="Y11" t="n">
         <v>-0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.201173326028738</v>
+        <v>-0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB11" t="n">
         <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>0.06004206032099968</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>0.03800396211726926</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.1224112006537266</v>
+        <v>0.03052996765202319</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.0335915942033443</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI11" t="n">
-        <v>-0.06218699548827417</v>
+        <v>-0</v>
       </c>
       <c r="AJ11" t="n">
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL11" t="n">
         <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0</v>
+        <v>-0.01928273281468286</v>
       </c>
       <c r="AN11" t="n">
-        <v>-0</v>
+        <v>-0.03078338412302969</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.1342992159965544</v>
+        <v>-0.06248062317465185</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.02547066812705285</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR11" t="n">
-        <v>-0.03011665616452423</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
         <v>-0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV11" t="n">
-        <v>-0</v>
+        <v>0.1529712139775669</v>
       </c>
       <c r="AW11" t="n">
-        <v>0</v>
+        <v>-0.01858769403671884</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.08848255432438654</v>
+        <v>0.1708608151468087</v>
       </c>
       <c r="AY11" t="n">
-        <v>-0.1729937635337735</v>
+        <v>-0</v>
       </c>
       <c r="AZ11" t="n">
         <v>-0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.1422418620807325</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD11" t="n">
         <v>0</v>
       </c>
       <c r="BE11" t="n">
-        <v>0</v>
+        <v>0.0923004019583504</v>
       </c>
       <c r="BF11" t="n">
-        <v>0</v>
+        <v>-0.03984387068528213</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.1454116757380173</v>
+        <v>-0.08900320377887121</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0.01128915818288295</v>
+        <v>0</v>
       </c>
       <c r="BI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.1147527994446131</v>
+        <v>0</v>
       </c>
       <c r="BK11" t="n">
         <v>0</v>
@@ -6320,22 +6320,22 @@
         <v>-0</v>
       </c>
       <c r="BN11" t="n">
-        <v>-0</v>
+        <v>0.03816941572154151</v>
       </c>
       <c r="BO11" t="n">
-        <v>-0</v>
+        <v>0.05536851891374819</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.008995379568645273</v>
+        <v>0.1198218264601084</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.03765895853567978</v>
+        <v>-0</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS11" t="n">
-        <v>-0.03982513752889273</v>
+        <v>0</v>
       </c>
       <c r="BT11" t="n">
         <v>-0</v>
@@ -6347,49 +6347,49 @@
         <v>-0</v>
       </c>
       <c r="BW11" t="n">
-        <v>0</v>
+        <v>0.05954179341908349</v>
       </c>
       <c r="BX11" t="n">
-        <v>-0</v>
+        <v>-0.02141594148381698</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.06080037522128322</v>
+        <v>0.1117756655233817</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-0.07513463691241384</v>
+        <v>0</v>
       </c>
       <c r="CA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.1344486939692701</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD11" t="n">
         <v>-0</v>
       </c>
       <c r="CE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CF11" t="n">
-        <v>-0</v>
+        <v>-0.06959294209998884</v>
       </c>
       <c r="CG11" t="n">
-        <v>-0</v>
+        <v>0.02686093877623242</v>
       </c>
       <c r="CH11" t="n">
-        <v>-0.06592449594456329</v>
+        <v>0.0004054989506993912</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.04898763148265858</v>
+        <v>0</v>
       </c>
       <c r="CJ11" t="n">
         <v>-0</v>
       </c>
       <c r="CK11" t="n">
-        <v>-0.06694665822601377</v>
+        <v>0</v>
       </c>
       <c r="CL11" t="n">
         <v>-0</v>
@@ -6398,109 +6398,109 @@
         <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO11" t="n">
-        <v>-0</v>
+        <v>0.01418004503149746</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0</v>
+        <v>-0.003704657935527651</v>
       </c>
       <c r="CQ11" t="n">
-        <v>-0.06395766407958284</v>
+        <v>-0.1186674801633818</v>
       </c>
       <c r="CR11" t="n">
-        <v>-0.06688922074774162</v>
+        <v>0</v>
       </c>
       <c r="CS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT11" t="n">
-        <v>-0.03795771890507486</v>
+        <v>-0</v>
       </c>
       <c r="CU11" t="n">
         <v>-0</v>
       </c>
       <c r="CV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW11" t="n">
         <v>0</v>
       </c>
       <c r="CX11" t="n">
-        <v>0</v>
+        <v>-0.05369284244981106</v>
       </c>
       <c r="CY11" t="n">
-        <v>0</v>
+        <v>0.02648432469705512</v>
       </c>
       <c r="CZ11" t="n">
-        <v>-0.05332261397532718</v>
+        <v>0.02319440181703224</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.04864033296193617</v>
+        <v>-0</v>
       </c>
       <c r="DB11" t="n">
         <v>0</v>
       </c>
       <c r="DC11" t="n">
-        <v>-0.09253040674033151</v>
+        <v>0</v>
       </c>
       <c r="DD11" t="n">
         <v>0</v>
       </c>
       <c r="DE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF11" t="n">
         <v>-0</v>
       </c>
       <c r="DG11" t="n">
-        <v>0</v>
+        <v>-0.03659946683637923</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>0.04330106983779596</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.02558291595649759</v>
+        <v>-0.0056095734747765</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.04160137884421881</v>
+        <v>0</v>
       </c>
       <c r="DK11" t="n">
         <v>-0</v>
       </c>
       <c r="DL11" t="n">
-        <v>-0.008419460887850776</v>
+        <v>0</v>
       </c>
       <c r="DM11" t="n">
         <v>-0</v>
       </c>
       <c r="DN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO11" t="n">
         <v>-0</v>
       </c>
       <c r="DP11" t="n">
-        <v>-0</v>
+        <v>-0.001868307312742693</v>
       </c>
       <c r="DQ11" t="n">
-        <v>-0</v>
+        <v>0.02712015548731022</v>
       </c>
       <c r="DR11" t="n">
-        <v>-0.04947385678677989</v>
+        <v>-0.1420395710614809</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.01880473375102429</v>
+        <v>-0</v>
       </c>
       <c r="DT11" t="n">
         <v>-0</v>
       </c>
       <c r="DU11" t="n">
-        <v>-0.04766126428359429</v>
+        <v>-0</v>
       </c>
       <c r="DV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW11" t="n">
         <v>-0</v>
@@ -6509,130 +6509,130 @@
         <v>0</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0</v>
+        <v>0.06473487613125521</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0</v>
+        <v>-0.002457176101492261</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.01838483442169286</v>
+        <v>-0.05875099378788502</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.02555531178852073</v>
+        <v>0</v>
       </c>
       <c r="EC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.01500376000678765</v>
+        <v>0</v>
       </c>
       <c r="EE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG11" t="n">
         <v>0</v>
       </c>
       <c r="EH11" t="n">
-        <v>-0</v>
+        <v>-0.1110914001496662</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0</v>
+        <v>0.04635818549333129</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.047938666882166</v>
+        <v>0.05896696643402607</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.05123611951413919</v>
+        <v>-0</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>-0.02545941436985749</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
         <v>-0</v>
       </c>
       <c r="EO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EQ11" t="n">
-        <v>-0</v>
+        <v>-0.006860286306501331</v>
       </c>
       <c r="ER11" t="n">
-        <v>-0</v>
+        <v>0.030564743052281</v>
       </c>
       <c r="ES11" t="n">
-        <v>-0.09931025076426693</v>
+        <v>0.02856841084114657</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.0476423924343664</v>
+        <v>0</v>
       </c>
       <c r="EU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV11" t="n">
-        <v>-0.07212708727160866</v>
+        <v>-0</v>
       </c>
       <c r="EW11" t="n">
         <v>-0</v>
       </c>
       <c r="EX11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EZ11" t="n">
-        <v>-0</v>
+        <v>-0.06724749697577918</v>
       </c>
       <c r="FA11" t="n">
-        <v>-0</v>
+        <v>0.04259430827403628</v>
       </c>
       <c r="FB11" t="n">
-        <v>-0.07017396889300395</v>
+        <v>0.02112461941074566</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.0542571589540632</v>
+        <v>0</v>
       </c>
       <c r="FD11" t="n">
         <v>-0</v>
       </c>
       <c r="FE11" t="n">
-        <v>-0.09804562329125945</v>
+        <v>0</v>
       </c>
       <c r="FF11" t="n">
         <v>-0</v>
       </c>
       <c r="FG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH11" t="n">
         <v>-0</v>
       </c>
       <c r="FI11" t="n">
-        <v>0</v>
+        <v>-0.004725861477240727</v>
       </c>
       <c r="FJ11" t="n">
-        <v>-0</v>
+        <v>0.005285212820973009</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.007629334091531847</v>
+        <v>0.07268587174485637</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.01115333739290794</v>
+        <v>-0</v>
       </c>
       <c r="FM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN11" t="n">
-        <v>-0.05263703538597584</v>
+        <v>0</v>
       </c>
       <c r="FO11" t="n">
         <v>0</v>
@@ -6641,55 +6641,55 @@
         <v>-0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR11" t="n">
-        <v>-0</v>
+        <v>-0.004240599187395422</v>
       </c>
       <c r="FS11" t="n">
-        <v>-0</v>
+        <v>-0.007104763743604158</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.0422723347026638</v>
+        <v>0.09031323925689508</v>
       </c>
       <c r="FU11" t="n">
-        <v>-0.01143996541763354</v>
+        <v>0</v>
       </c>
       <c r="FV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW11" t="n">
-        <v>-0.01262829620012957</v>
+        <v>0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
         <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GA11" t="n">
-        <v>0</v>
+        <v>0.04626409388790098</v>
       </c>
       <c r="GB11" t="n">
-        <v>0</v>
+        <v>-0.05480273634979909</v>
       </c>
       <c r="GC11" t="n">
         <v>-0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0.03874877815557856</v>
+        <v>-0</v>
       </c>
       <c r="GE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.00217789988520687</v>
+        <v>0</v>
       </c>
       <c r="GG11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -6697,79 +6697,79 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.185761519164108</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1179658066494084</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1042638085285008</v>
+        <v>-0.08280529374313922</v>
       </c>
       <c r="F12" t="n">
-        <v>-0</v>
+        <v>-0.05906482528137331</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4118372083104961</v>
+        <v>-0</v>
       </c>
       <c r="I12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.1296497095568202</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.07432185664359073</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1326302417742153</v>
+        <v>-0.05609002565123491</v>
       </c>
       <c r="O12" t="n">
-        <v>-0</v>
+        <v>-0.03579135002131095</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.4678361855179251</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-0</v>
+        <v>0.01864672818254303</v>
       </c>
       <c r="U12" t="n">
         <v>-0</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.06616456652069837</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1096122598486546</v>
+        <v>-0.02887223281028661</v>
       </c>
       <c r="X12" t="n">
-        <v>-0</v>
+        <v>0.02786397998979286</v>
       </c>
       <c r="Y12" t="n">
         <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.1582726309889172</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -6778,187 +6778,187 @@
         <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.0305368007271461</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.03287777084158015</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.00199588251797685</v>
+        <v>0.02202576027203309</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0</v>
+        <v>-0.003733405023159691</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.02685023790167852</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>0.02968125502208196</v>
       </c>
       <c r="AM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>-0.01588494653081481</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.09095219200040398</v>
+        <v>-0.01786262120572332</v>
       </c>
       <c r="AP12" t="n">
-        <v>0</v>
+        <v>-0.02616291587461859</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.04443576559399647</v>
+        <v>-0</v>
       </c>
       <c r="AS12" t="n">
         <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>0.1149478478685116</v>
       </c>
       <c r="AV12" t="n">
         <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0.04764208706989503</v>
+        <v>0</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.09916340191082766</v>
+        <v>-0.0609388444850836</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>-0.04359743020474337</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.2522559094603711</v>
+        <v>-0</v>
       </c>
       <c r="BB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>0.04113471601615659</v>
       </c>
       <c r="BE12" t="n">
         <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0.04356209698007142</v>
+        <v>0</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.009647625282424403</v>
+        <v>-0.033586889642026</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>-0.008106854990944429</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.06795032334384875</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL12" t="n">
         <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0</v>
+        <v>0.05040382219578231</v>
       </c>
       <c r="BN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>-0.01906921047450268</v>
+        <v>0</v>
       </c>
       <c r="BP12" t="n">
-        <v>-0.0298479346440042</v>
+        <v>0.02459522723025488</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>0.01557470893925633</v>
       </c>
       <c r="BR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS12" t="n">
-        <v>-0.09346239138302202</v>
+        <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU12" t="n">
         <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>-0</v>
+        <v>0.06765178711632917</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>-0.03126056750842748</v>
+        <v>0</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.06671098593848648</v>
+        <v>-0.03238911692027842</v>
       </c>
       <c r="BZ12" t="n">
-        <v>-0</v>
+        <v>0.01062193215397759</v>
       </c>
       <c r="CA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.2085335186043989</v>
+        <v>-0</v>
       </c>
       <c r="CC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD12" t="n">
         <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>-0.02639414156272516</v>
       </c>
       <c r="CF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.02850201632031986</v>
+        <v>-0</v>
       </c>
       <c r="CH12" t="n">
-        <v>-0.05070965493104514</v>
+        <v>0.008559142952868666</v>
       </c>
       <c r="CI12" t="n">
-        <v>-0</v>
+        <v>0.01613051095244695</v>
       </c>
       <c r="CJ12" t="n">
         <v>-0</v>
       </c>
       <c r="CK12" t="n">
-        <v>-0.07964767769415602</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
         <v>0</v>
@@ -6967,52 +6967,52 @@
         <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>0</v>
+        <v>-0.001681295693012171</v>
       </c>
       <c r="CO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>-0.0245701366266271</v>
+        <v>-0</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.1597674936082739</v>
+        <v>-0.01275195504509536</v>
       </c>
       <c r="CR12" t="n">
-        <v>-0</v>
+        <v>-0.02093154650694527</v>
       </c>
       <c r="CS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT12" t="n">
-        <v>-0.05138927545252452</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0</v>
+        <v>-0.01952888184489697</v>
       </c>
       <c r="CX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.03583322462808857</v>
+        <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>-0.06778058162993394</v>
+        <v>0.004553180121479291</v>
       </c>
       <c r="DA12" t="n">
-        <v>0</v>
+        <v>0.02295379872539117</v>
       </c>
       <c r="DB12" t="n">
         <v>0</v>
       </c>
       <c r="DC12" t="n">
-        <v>-0.09171027887105207</v>
+        <v>-0</v>
       </c>
       <c r="DD12" t="n">
         <v>0</v>
@@ -7021,241 +7021,241 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>-0</v>
+        <v>-0.009446839789090784</v>
       </c>
       <c r="DG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.02890323692381429</v>
+        <v>-0</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.02631794484368063</v>
+        <v>0.008389746392797848</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0</v>
+        <v>-0.004198287361923691</v>
       </c>
       <c r="DK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0.01565614200122375</v>
+        <v>-0</v>
       </c>
       <c r="DM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN12" t="n">
         <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.02386988757301259</v>
       </c>
       <c r="DP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>-0.05932498586735532</v>
+        <v>-0</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.01349397326965751</v>
+        <v>0.02125622512683335</v>
       </c>
       <c r="DS12" t="n">
-        <v>-0</v>
+        <v>0.02144786251296666</v>
       </c>
       <c r="DT12" t="n">
         <v>-0</v>
       </c>
       <c r="DU12" t="n">
-        <v>-0.009225076980343279</v>
+        <v>-0</v>
       </c>
       <c r="DV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW12" t="n">
         <v>-0</v>
       </c>
       <c r="DX12" t="n">
-        <v>0</v>
+        <v>-0.005336672732941069</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>-0.005322166803610519</v>
+        <v>-0</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.0572148367040238</v>
+        <v>-0.02320332016238783</v>
       </c>
       <c r="EB12" t="n">
-        <v>0</v>
+        <v>-0.01488335116879579</v>
       </c>
       <c r="EC12" t="n">
         <v>0</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.0374162690774531</v>
+        <v>0</v>
       </c>
       <c r="EE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF12" t="n">
         <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>-0.01621237883264771</v>
       </c>
       <c r="EH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.08580784452915273</v>
+        <v>0</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.02813551612866927</v>
+        <v>0.01577216402764448</v>
       </c>
       <c r="EK12" t="n">
-        <v>-0</v>
+        <v>0.007292625230345929</v>
       </c>
       <c r="EL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>-0.1296101109278287</v>
+        <v>0</v>
       </c>
       <c r="EN12" t="n">
         <v>-0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0</v>
+        <v>0.0006805769808963989</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0.07250837688031431</v>
+        <v>-0</v>
       </c>
       <c r="ES12" t="n">
-        <v>-0.1067390825235123</v>
+        <v>-0.0091960118702764</v>
       </c>
       <c r="ET12" t="n">
-        <v>-0</v>
+        <v>-0.02677545493915625</v>
       </c>
       <c r="EU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.05827904197057653</v>
+        <v>0</v>
       </c>
       <c r="EW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>-0.01688998410672381</v>
       </c>
       <c r="EZ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.03111797634482825</v>
+        <v>-0</v>
       </c>
       <c r="FB12" t="n">
-        <v>-0.05732457656523135</v>
+        <v>0.001741843322154773</v>
       </c>
       <c r="FC12" t="n">
-        <v>-0</v>
+        <v>0.0234164705170184</v>
       </c>
       <c r="FD12" t="n">
         <v>-0</v>
       </c>
       <c r="FE12" t="n">
-        <v>-0.09717212269721676</v>
+        <v>0</v>
       </c>
       <c r="FF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG12" t="n">
         <v>0</v>
       </c>
       <c r="FH12" t="n">
-        <v>-0</v>
+        <v>-0.02039740211811467</v>
       </c>
       <c r="FI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.03458811676299191</v>
+        <v>-0</v>
       </c>
       <c r="FK12" t="n">
-        <v>-0.04444483140970903</v>
+        <v>-0.03842939906323027</v>
       </c>
       <c r="FL12" t="n">
-        <v>0</v>
+        <v>0.01951696093881562</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>-0.05372483813608945</v>
+        <v>-0</v>
       </c>
       <c r="FO12" t="n">
         <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0</v>
+        <v>0.002203766585031614</v>
       </c>
       <c r="FR12" t="n">
         <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0.05392951350019006</v>
+        <v>-0</v>
       </c>
       <c r="FT12" t="n">
-        <v>-0.002839969301255975</v>
+        <v>0.001105556594987681</v>
       </c>
       <c r="FU12" t="n">
-        <v>-0</v>
+        <v>0.01600898399904726</v>
       </c>
       <c r="FV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW12" t="n">
-        <v>-0.01314677852333627</v>
+        <v>-0</v>
       </c>
       <c r="FX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>-0</v>
+        <v>-0.02248658517898526</v>
       </c>
       <c r="GA12" t="n">
         <v>0</v>
       </c>
       <c r="GB12" t="n">
-        <v>-0.02642526252563965</v>
+        <v>0</v>
       </c>
       <c r="GC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD12" t="n">
-        <v>-0</v>
+        <v>-0.02490499780259479</v>
       </c>
       <c r="GE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF12" t="n">
-        <v>-0.03107668662603748</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
         <v>0</v>
